--- a/Documentation/Working_Documents/Wheelchair_Bluetooth_Joystick_Adapter_BOM.xlsx
+++ b/Documentation/Working_Documents/Wheelchair_Bluetooth_Joystick_Adapter_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/Jake/Shared Documents/General/GitHub/Wheelchair-Bluetooth-Adapter/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{424DE59A-415D-41AD-8CBA-9C46B83330EB}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A26B13A-980E-47FF-8AC1-CC24CD800BBC}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,12 +469,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -499,10 +495,24 @@
     <xf numFmtId="44" fontId="0" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
@@ -791,18 +801,18 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
     <col min="9" max="9" width="83.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -810,73 +820,73 @@
     <col min="12" max="12" width="89.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="35.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <f>SUM(G5:G13)+E17</f>
         <v>62.2</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="18">
         <f>SUM(F15:F16)/60</f>
         <v>0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <f>SUM(D15:D16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -888,22 +898,22 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>21</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="13">
         <f>E5/D5</f>
         <v>21</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="13">
         <f>F5*C5</f>
         <v>21</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -913,22 +923,23 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>9.9499999999999993</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <f t="shared" ref="F6:F11" si="0">E6/D6</f>
         <v>9.9499999999999993</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <f t="shared" ref="G6:G11" si="1">F6*C6</f>
         <v>9.9499999999999993</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -938,22 +949,23 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>11.95</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="13">
         <f>E7/D7</f>
         <v>11.95</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="13">
         <f t="shared" si="1"/>
         <v>11.95</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -963,20 +975,21 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>9.9499999999999993</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <f>E8/D8</f>
         <v>9.9499999999999993</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>9.9499999999999993</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>38</v>
       </c>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -988,20 +1001,21 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <v>3.45</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>3.45</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <f t="shared" si="1"/>
         <v>3.45</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="26" t="s">
         <v>34</v>
       </c>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1013,18 +1027,18 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>3.95</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1032,25 +1046,25 @@
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="21"/>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>1.95</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="13">
         <f t="shared" si="1"/>
         <v>1.95</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1058,44 +1072,44 @@
       <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="I12" s="8"/>
+      <c r="B12" s="21"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="22">
         <v>25</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="L13" s="8"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1103,45 +1117,45 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="13">
         <f>(D15/1000)*$B$13</f>
         <v>0</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="17">
+      <c r="E16" s="13">
         <f>(D16/1000)*$B$13</f>
         <v>0</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="D17" s="19" t="s">
+      <c r="A17" s="8"/>
+      <c r="D17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="16">
         <f>SUM(E15:E16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1150,26 +1164,26 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1189,6 +1203,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="715913e6-4bf0-458f-8160-f18e142d04ff" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC44D19606E8540AF995795CBBBCE63" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72518c49cc9021390dbba2958e7a3f0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e718a8af-5d48-45b1-a7fb-cef00c107a7a" xmlns:ns3="715913e6-4bf0-458f-8160-f18e142d04ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="175092e7cad6d6b91dac7c2ca96d6cf8" ns2:_="" ns3:_="">
     <xsd:import namespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
@@ -1409,27 +1443,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="715913e6-4bf0-458f-8160-f18e142d04ff" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="715913e6-4bf0-458f-8160-f18e142d04ff"/>
+    <ds:schemaRef ds:uri="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F321EED9-0AEB-463C-A738-C1DEAC8A3BEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1446,23 +1479,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="715913e6-4bf0-458f-8160-f18e142d04ff"/>
-    <ds:schemaRef ds:uri="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>